--- a/Texts/Город Сокровищ/Все персонажи/Мачок.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Мачок.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -82,6 +82,63 @@
   </si>
   <si>
     <t xml:space="preserve"> Ðïçàìôêòóà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That [CS:N]Shaymin[CR]…</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us3114.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I had no idea that [CS:N]Shaymin[CR] could\nchange its Forme like that!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эти [CS:N]Шеймины[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я и представить себе не мог,\nчто [CS:N]Шеймины[CR] могут так менять свою Форму!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóé [CS:N]Šåêíéîú[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ é ðñåäòóàâéóû òåáå îå íïã,\nœóï [CS:N]Šåêíéîú[CR] íïãôó óàë íåîÿóû òâïý Õïñíô!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us0212.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I like to spend my days off by\nclimbing to the summit and greeting the\nmorning sun.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s a bit challenging, but that\'s\nwhy it can be so wonderful.</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us0306.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В свободное время я люблю\nзабираться на вершину горы и встречать\nутреннее солнце.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это непросто, но именно поэтому\nрассвет может быть таким чудесным.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â òâïáïäîïå âñåíÿ ÿ ìýáìý\nèàáéñàóûòÿ îà âåñšéîô ãïñú é âòóñåœàóû\nôóñåîîåå òïìîøå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï îåðñïòóï, îï éíåîîï ðïüóïíô\nñàòòâåó íïçåó áúóû óàëéí œôäåòîúí.</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us0409.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Until we meet again!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы ещё встретимся!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú åþæ âòóñåóéíòÿ!</t>
   </si>
 </sst>
 </file>
@@ -112,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -164,11 +221,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -195,6 +261,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -477,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,20 +634,103 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="8">
         <v>97</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="9" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="10">
+        <v>67</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4">
+        <v>38</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6">
+        <v>41</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
